--- a/análisis/Actores/Actor_Hostel_Worker.xlsx
+++ b/análisis/Actores/Actor_Hostel_Worker.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1350" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Actor" sheetId="1" r:id="rId1"/>
@@ -202,7 +202,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Actor</t>
   </si>
@@ -256,6 +256,36 @@
   </si>
   <si>
     <t>Actor que se encargará de las tareas de administración del hostal.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Número identificador, único en el sistema</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>Nombre del administrador del hostal</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>rut</t>
+  </si>
+  <si>
+    <t>Rut del administrador del hostal</t>
+  </si>
+  <si>
+    <t>prevision</t>
+  </si>
+  <si>
+    <t>Previsión del trabajador</t>
   </si>
 </sst>
 </file>
@@ -643,8 +673,6 @@
   <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -660,13 +688,37 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -675,45 +727,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -726,6 +739,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1009,7 +1039,7 @@
   <dimension ref="B1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G5"/>
+      <selection activeCell="B2" sqref="B2:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1025,161 +1055,195 @@
   <sheetData>
     <row r="1" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="3" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="22"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="22"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="22"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="22"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="7">
         <v>42115</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="11"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
+      <c r="B12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="16"/>
     </row>
     <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="7"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="28"/>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B17:G17"/>
     <mergeCell ref="C10:E10"/>
@@ -1188,16 +1252,6 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:G14"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
